--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.003292333333334</v>
+        <v>1.169212666666667</v>
       </c>
       <c r="H2">
-        <v>18.009877</v>
+        <v>3.507638</v>
       </c>
       <c r="I2">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="J2">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N2">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O2">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P2">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q2">
-        <v>0.9690434440568891</v>
+        <v>0.004259831482222223</v>
       </c>
       <c r="R2">
-        <v>8.721390996512001</v>
+        <v>0.03833848334</v>
       </c>
       <c r="S2">
-        <v>0.000779278933336836</v>
+        <v>1.130677558934218E-06</v>
       </c>
       <c r="T2">
-        <v>0.0007792789333368359</v>
+        <v>1.130677558934218E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.003292333333334</v>
+        <v>1.169212666666667</v>
       </c>
       <c r="H3">
-        <v>18.009877</v>
+        <v>3.507638</v>
       </c>
       <c r="I3">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="J3">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N3">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O3">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P3">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q3">
-        <v>2.299491089872778</v>
+        <v>1.952452252826889</v>
       </c>
       <c r="R3">
-        <v>20.695419808855</v>
+        <v>17.572070275442</v>
       </c>
       <c r="S3">
-        <v>0.001849189502001747</v>
+        <v>0.0005182350420139831</v>
       </c>
       <c r="T3">
-        <v>0.001849189502001747</v>
+        <v>0.0005182350420139831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>6509.435058</v>
       </c>
       <c r="I4">
-        <v>0.9500256210433516</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="J4">
-        <v>0.9500256210433515</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N4">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O4">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P4">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q4">
-        <v>350.248109271872</v>
+        <v>7.90534724266</v>
       </c>
       <c r="R4">
-        <v>3152.232983446848</v>
+        <v>71.14812518394001</v>
       </c>
       <c r="S4">
-        <v>0.2816602028222427</v>
+        <v>0.002098298667485145</v>
       </c>
       <c r="T4">
-        <v>0.2816602028222427</v>
+        <v>0.002098298667485145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>6509.435058</v>
       </c>
       <c r="I5">
-        <v>0.9500256210433516</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="J5">
-        <v>0.9500256210433515</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N5">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O5">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P5">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q5">
-        <v>831.12105185263</v>
+        <v>3623.338880358358</v>
       </c>
       <c r="R5">
-        <v>7480.089466673669</v>
+        <v>32610.04992322522</v>
       </c>
       <c r="S5">
-        <v>0.668365418221109</v>
+        <v>0.9617347487881944</v>
       </c>
       <c r="T5">
-        <v>0.668365418221109</v>
+        <v>0.9617347487881944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>108.1357256666667</v>
+        <v>80.250984</v>
       </c>
       <c r="H6">
-        <v>324.407177</v>
+        <v>240.752952</v>
       </c>
       <c r="I6">
-        <v>0.04734591052130986</v>
+        <v>0.03564758682474761</v>
       </c>
       <c r="J6">
-        <v>0.04734591052130985</v>
+        <v>0.0356475868247476</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N6">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O6">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P6">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q6">
-        <v>17.45512465614578</v>
+        <v>0.29238108504</v>
       </c>
       <c r="R6">
-        <v>157.096121905312</v>
+        <v>2.63142976536</v>
       </c>
       <c r="S6">
-        <v>0.01403694644107642</v>
+        <v>7.760605857091495E-05</v>
       </c>
       <c r="T6">
-        <v>0.01403694644107642</v>
+        <v>7.760605857091494E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>108.1357256666667</v>
+        <v>80.250984</v>
       </c>
       <c r="H7">
-        <v>324.407177</v>
+        <v>240.752952</v>
       </c>
       <c r="I7">
-        <v>0.04734591052130986</v>
+        <v>0.03564758682474761</v>
       </c>
       <c r="J7">
-        <v>0.04734591052130985</v>
+        <v>0.0356475868247476</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N7">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O7">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P7">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q7">
-        <v>41.42012813315055</v>
+        <v>134.010021418152</v>
       </c>
       <c r="R7">
-        <v>372.781153198355</v>
+        <v>1206.090192763368</v>
       </c>
       <c r="S7">
-        <v>0.03330896408023344</v>
+        <v>0.03556998076617669</v>
       </c>
       <c r="T7">
-        <v>0.03330896408023344</v>
+        <v>0.03556998076617669</v>
       </c>
     </row>
   </sheetData>
